--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.204228666666666</v>
+        <v>3.440334666666667</v>
       </c>
       <c r="H2">
-        <v>24.612686</v>
+        <v>10.321004</v>
       </c>
       <c r="I2">
-        <v>0.07326752815431403</v>
+        <v>0.03090290794544385</v>
       </c>
       <c r="J2">
-        <v>0.07326752815431405</v>
+        <v>0.03090290794544386</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>1259.587165171297</v>
+        <v>501.2593228358818</v>
       </c>
       <c r="R2">
-        <v>11336.28448654167</v>
+        <v>4511.333905522937</v>
       </c>
       <c r="S2">
-        <v>0.02324197633992198</v>
+        <v>0.008856581046889331</v>
       </c>
       <c r="T2">
-        <v>0.02324197633992199</v>
+        <v>0.008856581046889333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.204228666666666</v>
+        <v>3.440334666666667</v>
       </c>
       <c r="H3">
-        <v>24.612686</v>
+        <v>10.321004</v>
       </c>
       <c r="I3">
-        <v>0.07326752815431403</v>
+        <v>0.03090290794544385</v>
       </c>
       <c r="J3">
-        <v>0.07326752815431405</v>
+        <v>0.03090290794544386</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>1384.871359542676</v>
+        <v>580.7274688071592</v>
       </c>
       <c r="R3">
-        <v>12463.84223588409</v>
+        <v>5226.547219264433</v>
       </c>
       <c r="S3">
-        <v>0.02555372765167007</v>
+        <v>0.01026067677813439</v>
       </c>
       <c r="T3">
-        <v>0.02555372765167007</v>
+        <v>0.01026067677813439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.204228666666666</v>
+        <v>3.440334666666667</v>
       </c>
       <c r="H4">
-        <v>24.612686</v>
+        <v>10.321004</v>
       </c>
       <c r="I4">
-        <v>0.07326752815431403</v>
+        <v>0.03090290794544385</v>
       </c>
       <c r="J4">
-        <v>0.07326752815431405</v>
+        <v>0.03090290794544386</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>767.6095639565592</v>
+        <v>440.7968516064285</v>
       </c>
       <c r="R4">
-        <v>6908.486075609033</v>
+        <v>3967.171664457856</v>
       </c>
       <c r="S4">
-        <v>0.01416397675134292</v>
+        <v>0.00778829013968122</v>
       </c>
       <c r="T4">
-        <v>0.01416397675134292</v>
+        <v>0.007788290139681221</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.204228666666666</v>
+        <v>3.440334666666667</v>
       </c>
       <c r="H5">
-        <v>24.612686</v>
+        <v>10.321004</v>
       </c>
       <c r="I5">
-        <v>0.07326752815431403</v>
+        <v>0.03090290794544385</v>
       </c>
       <c r="J5">
-        <v>0.07326752815431405</v>
+        <v>0.03090290794544386</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>558.6285826139356</v>
+        <v>226.2401198011053</v>
       </c>
       <c r="R5">
-        <v>5027.65724352542</v>
+        <v>2036.161078209948</v>
       </c>
       <c r="S5">
-        <v>0.01030784741137906</v>
+        <v>0.003997359980738913</v>
       </c>
       <c r="T5">
-        <v>0.01030784741137907</v>
+        <v>0.003997359980738913</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>244.546593</v>
       </c>
       <c r="I6">
-        <v>0.7279711116319884</v>
+        <v>0.73221566931385</v>
       </c>
       <c r="J6">
-        <v>0.7279711116319885</v>
+        <v>0.7322156693138502</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>12514.99937183487</v>
+        <v>11876.87356859875</v>
       </c>
       <c r="R6">
-        <v>112634.9943465138</v>
+        <v>106891.8621173888</v>
       </c>
       <c r="S6">
-        <v>0.2309275033417536</v>
+        <v>0.2098484527905579</v>
       </c>
       <c r="T6">
-        <v>0.2309275033417536</v>
+        <v>0.2098484527905579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>244.546593</v>
       </c>
       <c r="I7">
-        <v>0.7279711116319884</v>
+        <v>0.73221566931385</v>
       </c>
       <c r="J7">
-        <v>0.7279711116319885</v>
+        <v>0.7322156693138502</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>13759.79739551545</v>
@@ -883,10 +883,10 @@
         <v>123838.1765596391</v>
       </c>
       <c r="S7">
-        <v>0.2538965895744092</v>
+        <v>0.24311719557196</v>
       </c>
       <c r="T7">
-        <v>0.2538965895744092</v>
+        <v>0.2431171955719601</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>244.546593</v>
       </c>
       <c r="I8">
-        <v>0.7279711116319884</v>
+        <v>0.73221566931385</v>
       </c>
       <c r="J8">
-        <v>0.7279711116319885</v>
+        <v>0.7322156693138502</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>7626.810971374363</v>
+        <v>10444.27153264146</v>
       </c>
       <c r="R8">
-        <v>68641.29874236927</v>
+        <v>93998.44379377316</v>
       </c>
       <c r="S8">
-        <v>0.1407303639217646</v>
+        <v>0.184536293073284</v>
       </c>
       <c r="T8">
-        <v>0.1407303639217646</v>
+        <v>0.184536293073284</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>244.546593</v>
       </c>
       <c r="I9">
-        <v>0.7279711116319884</v>
+        <v>0.73221566931385</v>
       </c>
       <c r="J9">
-        <v>0.7279711116319885</v>
+        <v>0.7322156693138502</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>5550.418862478357</v>
+        <v>5360.549273817948</v>
       </c>
       <c r="R9">
-        <v>49953.76976230522</v>
+        <v>48244.94346436154</v>
       </c>
       <c r="S9">
-        <v>0.1024166547940611</v>
+        <v>0.09471372787804817</v>
       </c>
       <c r="T9">
-        <v>0.1024166547940611</v>
+        <v>0.0947137278780482</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.892761</v>
+        <v>25.13705366666667</v>
       </c>
       <c r="H10">
-        <v>59.67828300000001</v>
+        <v>75.41116100000001</v>
       </c>
       <c r="I10">
-        <v>0.1776514875257265</v>
+        <v>0.2257943283853049</v>
       </c>
       <c r="J10">
-        <v>0.1776514875257265</v>
+        <v>0.225794328385305</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>3054.116048376858</v>
+        <v>3662.487437959298</v>
       </c>
       <c r="R10">
-        <v>27487.04443539172</v>
+        <v>32962.38694163368</v>
       </c>
       <c r="S10">
-        <v>0.05635472867500804</v>
+        <v>0.06471124894792406</v>
       </c>
       <c r="T10">
-        <v>0.05635472867500804</v>
+        <v>0.06471124894792407</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.892761</v>
+        <v>25.13705366666667</v>
       </c>
       <c r="H11">
-        <v>59.67828300000001</v>
+        <v>75.41116100000001</v>
       </c>
       <c r="I11">
-        <v>0.1776514875257265</v>
+        <v>0.2257943283853049</v>
       </c>
       <c r="J11">
-        <v>0.1776514875257265</v>
+        <v>0.225794328385305</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>3357.892142019064</v>
+        <v>4243.127184849378</v>
       </c>
       <c r="R11">
-        <v>30221.02927817157</v>
+        <v>38188.14466364439</v>
       </c>
       <c r="S11">
-        <v>0.06196002299388585</v>
+        <v>0.07497037579724354</v>
       </c>
       <c r="T11">
-        <v>0.06196002299388584</v>
+        <v>0.07497037579724355</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.892761</v>
+        <v>25.13705366666667</v>
       </c>
       <c r="H12">
-        <v>59.67828300000001</v>
+        <v>75.41116100000001</v>
       </c>
       <c r="I12">
-        <v>0.1776514875257265</v>
+        <v>0.2257943283853049</v>
       </c>
       <c r="J12">
-        <v>0.1776514875257265</v>
+        <v>0.225794328385305</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>1861.219892510153</v>
+        <v>3220.714025959634</v>
       </c>
       <c r="R12">
-        <v>16750.97903259138</v>
+        <v>28986.42623363671</v>
       </c>
       <c r="S12">
-        <v>0.03434333875514699</v>
+        <v>0.05690570429371145</v>
       </c>
       <c r="T12">
-        <v>0.03434333875514699</v>
+        <v>0.05690570429371146</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.892761</v>
+        <v>25.13705366666667</v>
       </c>
       <c r="H13">
-        <v>59.67828300000001</v>
+        <v>75.41116100000001</v>
       </c>
       <c r="I13">
-        <v>0.1776514875257265</v>
+        <v>0.2257943283853049</v>
       </c>
       <c r="J13">
-        <v>0.1776514875257265</v>
+        <v>0.225794328385305</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>1354.504528482724</v>
+        <v>1653.039772000906</v>
       </c>
       <c r="R13">
-        <v>12190.54075634451</v>
+        <v>14877.35794800816</v>
       </c>
       <c r="S13">
-        <v>0.02499339710168559</v>
+        <v>0.0292069993464259</v>
       </c>
       <c r="T13">
-        <v>0.02499339710168559</v>
+        <v>0.02920699934642591</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.363806</v>
+        <v>1.234295333333334</v>
       </c>
       <c r="H14">
-        <v>7.091417999999999</v>
+        <v>3.702886</v>
       </c>
       <c r="I14">
-        <v>0.02110987268797113</v>
+        <v>0.01108709435540116</v>
       </c>
       <c r="J14">
-        <v>0.02110987268797113</v>
+        <v>0.01108709435540116</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>362.9128123466373</v>
+        <v>179.8377492052583</v>
       </c>
       <c r="R14">
-        <v>3266.215311119735</v>
+        <v>1618.539742847324</v>
       </c>
       <c r="S14">
-        <v>0.00669648852516531</v>
+        <v>0.003177492225212959</v>
       </c>
       <c r="T14">
-        <v>0.00669648852516531</v>
+        <v>0.00317749222521296</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.363806</v>
+        <v>1.234295333333334</v>
       </c>
       <c r="H15">
-        <v>7.091417999999999</v>
+        <v>3.702886</v>
       </c>
       <c r="I15">
-        <v>0.02110987268797113</v>
+        <v>0.01108709435540116</v>
       </c>
       <c r="J15">
-        <v>0.02110987268797113</v>
+        <v>0.01108709435540116</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>399.0097499616827</v>
+        <v>208.348685269521</v>
       </c>
       <c r="R15">
-        <v>3591.087749655144</v>
+        <v>1875.138167425688</v>
       </c>
       <c r="S15">
-        <v>0.007362551337799982</v>
+        <v>0.003681242289246176</v>
       </c>
       <c r="T15">
-        <v>0.007362551337799981</v>
+        <v>0.003681242289246177</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.363806</v>
+        <v>1.234295333333334</v>
       </c>
       <c r="H16">
-        <v>7.091417999999999</v>
+        <v>3.702886</v>
       </c>
       <c r="I16">
-        <v>0.02110987268797113</v>
+        <v>0.01108709435540116</v>
       </c>
       <c r="J16">
-        <v>0.02110987268797113</v>
+        <v>0.01108709435540116</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>221.164007813438</v>
+        <v>158.1455147830116</v>
       </c>
       <c r="R16">
-        <v>1990.476070320942</v>
+        <v>1423.309633047104</v>
       </c>
       <c r="S16">
-        <v>0.004080931259841154</v>
+        <v>0.002794219488933793</v>
       </c>
       <c r="T16">
-        <v>0.004080931259841153</v>
+        <v>0.002794219488933794</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.363806</v>
+        <v>1.234295333333334</v>
       </c>
       <c r="H17">
-        <v>7.091417999999999</v>
+        <v>3.702886</v>
       </c>
       <c r="I17">
-        <v>0.02110987268797113</v>
+        <v>0.01108709435540116</v>
       </c>
       <c r="J17">
-        <v>0.02110987268797113</v>
+        <v>0.01108709435540116</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>160.9523148372733</v>
+        <v>81.16859292466468</v>
       </c>
       <c r="R17">
-        <v>1448.57083353546</v>
+        <v>730.517336321982</v>
       </c>
       <c r="S17">
-        <v>0.002969901565164684</v>
+        <v>0.001434140352008234</v>
       </c>
       <c r="T17">
-        <v>0.002969901565164684</v>
+        <v>0.001434140352008234</v>
       </c>
     </row>
   </sheetData>
